--- a/CAMS/bg_obs_catch_columns.xlsx
+++ b/CAMS/bg_obs_catch_columns.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14250" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="obs_catch" sheetId="1" r:id="rId1"/>
+    <sheet name="obs_prorate" sheetId="2" r:id="rId2"/>
+    <sheet name="obs_cams" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="160">
   <si>
     <t>PERMIT</t>
   </si>
@@ -315,6 +317,195 @@
   </si>
   <si>
     <t>Prorated observer recorded discard</t>
+  </si>
+  <si>
+    <t>VARCHAR2(2)</t>
+  </si>
+  <si>
+    <t>OBSRFLAG</t>
+  </si>
+  <si>
+    <t>VARCHAR2(1)</t>
+  </si>
+  <si>
+    <t>OBS_HAUL_KALL_TRIP</t>
+  </si>
+  <si>
+    <t>OBS_NOHAUL_KALL_TRIP</t>
+  </si>
+  <si>
+    <t>PRORATE</t>
+  </si>
+  <si>
+    <t>DISCARD_PRORATE</t>
+  </si>
+  <si>
+    <t>Was the trip observed (0,1)</t>
+  </si>
+  <si>
+    <t>Statistical Area</t>
+  </si>
+  <si>
+    <t>3 digit species code</t>
+  </si>
+  <si>
+    <t>Observer prorated amount on unobserved hauls</t>
+  </si>
+  <si>
+    <t>ratio of KALL/obs_hauls</t>
+  </si>
+  <si>
+    <t>Observer recorded discard</t>
+  </si>
+  <si>
+    <t>CATDISP</t>
+  </si>
+  <si>
+    <t>FLEET_TYPE</t>
+  </si>
+  <si>
+    <t>DATELAND</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>DATESAIL</t>
+  </si>
+  <si>
+    <t>DEALNUM</t>
+  </si>
+  <si>
+    <t>VARCHAR2(25)</t>
+  </si>
+  <si>
+    <t>DRFLAG</t>
+  </si>
+  <si>
+    <t>ESTMETH</t>
+  </si>
+  <si>
+    <t>FISHDISP</t>
+  </si>
+  <si>
+    <t>FISHDISPDESC</t>
+  </si>
+  <si>
+    <t>VARCHAR2(80)</t>
+  </si>
+  <si>
+    <t>GEARCAT</t>
+  </si>
+  <si>
+    <t>HAILWT</t>
+  </si>
+  <si>
+    <t>NUMBER(7,1)</t>
+  </si>
+  <si>
+    <t>HULLNUM1</t>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+  </si>
+  <si>
+    <t>LATHBEG</t>
+  </si>
+  <si>
+    <t>LATHEND</t>
+  </si>
+  <si>
+    <t>LATSBEG</t>
+  </si>
+  <si>
+    <t>LATSEND</t>
+  </si>
+  <si>
+    <t>LIVEWT</t>
+  </si>
+  <si>
+    <t>NEMAREA</t>
+  </si>
+  <si>
+    <t>NESPP4</t>
+  </si>
+  <si>
+    <t>ONEFFORT</t>
+  </si>
+  <si>
+    <t>PERMIT1</t>
+  </si>
+  <si>
+    <t>PORT</t>
+  </si>
+  <si>
+    <t>PROGRAM</t>
+  </si>
+  <si>
+    <t>QDSQ</t>
+  </si>
+  <si>
+    <t>VARCHAR2(5)</t>
+  </si>
+  <si>
+    <t>QTR</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>TENMSQ</t>
+  </si>
+  <si>
+    <t>TRIPEXT</t>
+  </si>
+  <si>
+    <t>TRIPID</t>
+  </si>
+  <si>
+    <t>VMSCODE</t>
+  </si>
+  <si>
+    <t>WGTTYPE</t>
+  </si>
+  <si>
+    <t>YEARLAND</t>
+  </si>
+  <si>
+    <t>KEPTALL</t>
+  </si>
+  <si>
+    <t>CODLINERUSD</t>
+  </si>
+  <si>
+    <t>CODMSIZE</t>
+  </si>
+  <si>
+    <t>NUMBER(3)</t>
+  </si>
+  <si>
+    <t>LINERMSIZE</t>
+  </si>
+  <si>
+    <t>MSWGTAVG</t>
+  </si>
+  <si>
+    <t>NUMBER(4,2)</t>
+  </si>
+  <si>
+    <t>CALENDARQTR</t>
+  </si>
+  <si>
+    <t>MESHSIZE</t>
+  </si>
+  <si>
+    <t>STOCKAREA</t>
+  </si>
+  <si>
+    <t>VARCHAR2(7)</t>
+  </si>
+  <si>
+    <t>see OBDBS</t>
   </si>
 </sst>
 </file>
@@ -637,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,4 +1316,884 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>